--- a/Controlled Documents/Risk Management file/Risk management document_0.2.xlsx
+++ b/Controlled Documents/Risk Management file/Risk management document_0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maja/Documents/GitHub/P6UI/Controlled Documents/Risk Management file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12BF9F7-0994-1B4F-AE66-F59676D6165F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3FB74D-FD0E-4348-881E-5ACFA6950087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{F36EC6E0-2537-2845-9FD7-BA048DA36987}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F36EC6E0-2537-2845-9FD7-BA048DA36987}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Control" sheetId="3" r:id="rId1"/>
@@ -1522,7 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F1CFFF-8DB2-F840-971E-22A3DD28E032}">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1616,7 +1616,7 @@
   <dimension ref="B1:S46"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
@@ -2940,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AB6D91-6908-B64D-A006-89398C5D4333}">
   <dimension ref="B1:S348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>

--- a/Controlled Documents/Risk Management file/Risk management document_0.2.xlsx
+++ b/Controlled Documents/Risk Management file/Risk management document_0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maja/Documents/GitHub/P6UI/Controlled Documents/Risk Management file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3FB74D-FD0E-4348-881E-5ACFA6950087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D86CDF-2AEB-0447-B85B-BC23AC97403E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F36EC6E0-2537-2845-9FD7-BA048DA36987}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F36EC6E0-2537-2845-9FD7-BA048DA36987}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Control" sheetId="3" r:id="rId1"/>
@@ -937,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -972,107 +972,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1110,101 +1014,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F1CFFF-8DB2-F840-971E-22A3DD28E032}">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1536,12 +1440,12 @@
   <sheetData>
     <row r="2" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="2:5" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1615,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFB9731-388B-DD46-8BCB-B4ED8E89DF18}">
   <dimension ref="B1:S46"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -1639,1093 +1543,1093 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="15" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="26" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="30"/>
+      <c r="P2" s="34"/>
       <c r="Q2" s="35"/>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="18" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="18" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="33"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="30"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="33"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="30"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="33"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="30"/>
     </row>
     <row r="6" spans="2:19" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="33"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" spans="2:19" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15">
         <v>3</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="15">
         <v>2</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="16">
         <f t="shared" ref="M7:M14" si="0">K7*L7</f>
         <v>6</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="49"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" spans="2:19" ht="171" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20">
         <v>4</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="20">
         <v>2</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="20">
         <v>3</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="20">
         <v>2</v>
       </c>
-      <c r="Q8" s="53">
+      <c r="Q8" s="21">
         <f>O8*P8</f>
         <v>6</v>
       </c>
-      <c r="R8" s="52" t="s">
+      <c r="R8" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="S8" s="54" t="s">
+      <c r="S8" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15">
         <v>2</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="15">
         <v>2</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="49"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="17"/>
     </row>
     <row r="10" spans="2:19" ht="161" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15">
         <v>4</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="15">
         <v>2</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N10" s="47" t="s">
+      <c r="N10" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="O10" s="47">
+      <c r="O10" s="15">
         <v>3</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="15">
         <v>2</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="16">
         <f t="shared" ref="Q10:Q13" si="1">O10*P10</f>
         <v>6</v>
       </c>
-      <c r="R10" s="47" t="s">
+      <c r="R10" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="S10" s="49" t="s">
+      <c r="S10" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="170" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47">
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
         <v>2</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="15">
         <v>2</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="49"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="17"/>
     </row>
     <row r="12" spans="2:19" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15">
         <v>4</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="15">
         <v>2</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N12" s="47" t="s">
+      <c r="N12" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="15">
         <v>3</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="15">
         <v>2</v>
       </c>
-      <c r="Q12" s="48">
+      <c r="Q12" s="16">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="R12" s="47" t="s">
+      <c r="R12" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="49" t="s">
+      <c r="S12" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="154" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15">
         <v>5</v>
       </c>
-      <c r="L13" s="47">
+      <c r="L13" s="15">
         <v>2</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N13" s="47" t="s">
+      <c r="N13" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="O13" s="47">
+      <c r="O13" s="15">
         <v>3</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="15">
         <v>2</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="16">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="R13" s="47" t="s">
+      <c r="R13" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="S13" s="49" t="s">
+      <c r="S13" s="17" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15">
         <v>3</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="15">
         <v>1</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="49"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="17"/>
     </row>
     <row r="15" spans="2:19" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15">
         <v>3</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="15">
         <v>1</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="16">
         <f t="shared" ref="M15:M17" si="2">K15*L15</f>
         <v>3</v>
       </c>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="49"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="17"/>
     </row>
     <row r="16" spans="2:19" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15">
         <v>3</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="15">
         <v>2</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="16">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="49"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="17"/>
     </row>
     <row r="17" spans="2:19" ht="74" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47">
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15">
         <v>4</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="15">
         <v>1</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="16">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="49"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="17"/>
     </row>
     <row r="18" spans="2:19" ht="76" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47">
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15">
         <v>4</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="15">
         <v>1</v>
       </c>
-      <c r="M18" s="48">
+      <c r="M18" s="16">
         <f t="shared" ref="M18:M21" si="3">K18*L18</f>
         <v>4</v>
       </c>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="49"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="17"/>
     </row>
     <row r="19" spans="2:19" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47">
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15">
         <v>3</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L19" s="15">
         <v>2</v>
       </c>
-      <c r="M19" s="48">
+      <c r="M19" s="16">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="49"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="17"/>
     </row>
     <row r="20" spans="2:19" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47">
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15">
         <v>3</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="15">
         <v>1</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="16">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="49"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="17"/>
     </row>
     <row r="21" spans="2:19" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52">
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20">
         <v>3</v>
       </c>
-      <c r="L21" s="52">
+      <c r="L21" s="20">
         <v>2</v>
       </c>
-      <c r="M21" s="53">
+      <c r="M21" s="21">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="54"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="22"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
@@ -2909,13 +2813,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="S2:S6"/>
-    <mergeCell ref="N2:N6"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="R2:R6"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:K6"/>
     <mergeCell ref="L3:L6"/>
@@ -2930,6 +2827,13 @@
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="I3:I6"/>
     <mergeCell ref="J3:J6"/>
+    <mergeCell ref="S2:S6"/>
+    <mergeCell ref="N2:N6"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R2:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2968,1462 +2872,1462 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="63" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="59" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="62" t="s">
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="35" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="74" t="s">
+      <c r="N3" s="57"/>
+      <c r="O3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="78" t="s">
+      <c r="P3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="76" t="s">
+      <c r="Q3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
     </row>
     <row r="6" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
     </row>
     <row r="7" spans="2:19" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15">
         <v>4</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="15">
         <v>1</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="16">
         <f>K7*L7</f>
         <v>4</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="49"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" spans="2:19" ht="85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15">
         <v>4</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="15">
         <v>1</v>
       </c>
-      <c r="M8" s="48">
-        <f t="shared" ref="M8:M55" si="0">K8*L8</f>
+      <c r="M8" s="16">
+        <f t="shared" ref="M8:M21" si="0">K8*L8</f>
         <v>4</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="56"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="24"/>
     </row>
     <row r="9" spans="2:19" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15">
         <v>2</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="15">
         <v>1</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="16">
         <f t="shared" ref="M9" si="1">K9*L9</f>
         <v>2</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="56"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="24"/>
     </row>
     <row r="10" spans="2:19" ht="161" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15">
         <v>2</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="15">
         <v>2</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="56"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="24"/>
     </row>
     <row r="11" spans="2:19" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47">
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
         <v>2</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="15">
         <v>2</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="56"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="24"/>
     </row>
     <row r="12" spans="2:19" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15">
         <v>1</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="15">
         <v>2</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="56"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="24"/>
     </row>
     <row r="13" spans="2:19" ht="158" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15">
         <v>1</v>
       </c>
-      <c r="L13" s="47">
+      <c r="L13" s="15">
         <v>2</v>
       </c>
-      <c r="M13" s="48">
+      <c r="M13" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="24"/>
     </row>
     <row r="14" spans="2:19" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15">
         <v>2</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="15">
         <v>1</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="56"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="24"/>
     </row>
     <row r="15" spans="2:19" ht="115" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15">
         <v>1</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="15">
         <v>1</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="56"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="2:19" ht="118" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15">
         <v>1</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="15">
         <v>1</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="56"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="24"/>
     </row>
     <row r="17" spans="2:19" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47">
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15">
         <v>2</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="15">
         <v>1</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="16">
         <f>K17*L17</f>
         <v>2</v>
       </c>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="56"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="18" spans="2:19" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47">
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15">
         <v>4</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="15">
         <v>1</v>
       </c>
-      <c r="M18" s="48">
+      <c r="M18" s="16">
         <f>K18*L18</f>
         <v>4</v>
       </c>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="56"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="24"/>
     </row>
     <row r="19" spans="2:19" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47">
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15">
         <v>1</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L19" s="15">
         <v>2</v>
       </c>
-      <c r="M19" s="48">
+      <c r="M19" s="16">
         <f>K19*L19</f>
         <v>2</v>
       </c>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="56"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="24"/>
     </row>
     <row r="20" spans="2:19" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47">
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15">
         <v>1</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="15">
         <v>1</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="16">
         <f>K20*L20</f>
         <v>1</v>
       </c>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="56"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="24"/>
     </row>
     <row r="21" spans="2:19" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47">
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15">
         <v>2</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="15">
         <v>1</v>
       </c>
-      <c r="M21" s="48">
+      <c r="M21" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="56"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="24"/>
     </row>
     <row r="22" spans="2:19" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52">
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20">
         <v>2</v>
       </c>
-      <c r="L22" s="52">
+      <c r="L22" s="20">
         <v>1</v>
       </c>
-      <c r="M22" s="53">
+      <c r="M22" s="21">
         <f t="shared" ref="M22" si="2">K22*L22</f>
         <v>2</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="57"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="25"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="40"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="13"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="40"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="13"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="40"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="13"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="40"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="13"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="40"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="13"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="40"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="13"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="40"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="13"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="40"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="13"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="40"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="13"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="40"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="13"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="40"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="13"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="40"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="13"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="40"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="13"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="40"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="13"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="40"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="13"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="40"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="13"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="40"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="13"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="40"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="13"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="40"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="13"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="40"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="13"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="40"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="13"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="40"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="13"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="40"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="13"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="40"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="13"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="40"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="13"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="40"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="13"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="40"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="13"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="40"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="13"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="40"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="13"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="40"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="13"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="40"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="13"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="40"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="13"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="40"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="13"/>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
@@ -9994,12 +9898,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
     <mergeCell ref="S2:S6"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="I3:I6"/>
@@ -10015,6 +9913,12 @@
     <mergeCell ref="O3:O6"/>
     <mergeCell ref="P3:P6"/>
     <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Controlled Documents/Risk Management file/Risk management document_0.2.xlsx
+++ b/Controlled Documents/Risk Management file/Risk management document_0.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maja/Documents/GitHub/P6UI/Controlled Documents/Risk Management file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D86CDF-2AEB-0447-B85B-BC23AC97403E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A745921-27F1-5F4D-80F7-E4FB2F859023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F36EC6E0-2537-2845-9FD7-BA048DA36987}"/>
   </bookViews>
@@ -1023,26 +1023,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1053,10 +1041,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1068,32 +1059,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1104,7 +1077,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1523,7 +1523,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1543,146 +1543,146 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="45" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="31" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="29" t="s">
+      <c r="P2" s="47"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="36" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="36" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="44"/>
-      <c r="S3" s="30"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="50"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="30"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="50"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="30"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="50"/>
     </row>
     <row r="6" spans="2:19" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="30"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="50"/>
     </row>
     <row r="7" spans="2:19" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="16">
-        <f t="shared" ref="M7:M14" si="0">K7*L7</f>
+        <f>K7*L7</f>
         <v>6</v>
       </c>
       <c r="N7" s="15"/>
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="23">
-        <f t="shared" si="0"/>
+        <f>K8*L8</f>
         <v>8</v>
       </c>
       <c r="N8" s="20" t="s">
@@ -1810,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M9:M14" si="0">K9*L9</f>
         <v>4</v>
       </c>
       <c r="N9" s="15"/>
@@ -2813,6 +2813,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="S2:S6"/>
+    <mergeCell ref="N2:N6"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R2:R6"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:K6"/>
     <mergeCell ref="L3:L6"/>
@@ -2827,13 +2834,6 @@
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="I3:I6"/>
     <mergeCell ref="J3:J6"/>
-    <mergeCell ref="S2:S6"/>
-    <mergeCell ref="N2:N6"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="R2:R6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2872,146 +2872,146 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="45" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="31" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="29" t="s">
+      <c r="P2" s="47"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="36" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="57"/>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="57"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="39"/>
       <c r="N5" s="57"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
     </row>
     <row r="6" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="43"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="57"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
     </row>
     <row r="7" spans="2:19" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
@@ -9898,6 +9898,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
     <mergeCell ref="S2:S6"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="I3:I6"/>
@@ -9913,12 +9919,6 @@
     <mergeCell ref="O3:O6"/>
     <mergeCell ref="P3:P6"/>
     <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
